--- a/data/processed/Huisjes.xlsx
+++ b/data/processed/Huisjes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,82 +692,82 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>The pool Waterwyck</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Zwaluwstraat 11, Neede</t>
+          <t>Gagelsweg 25, Steenwijk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>Bosbad Vledder</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stationsstraat 12, Haaksbergen</t>
+          <t>Vledderweg 21, Vledder</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lidl</t>
+          <t>Zwembad De Kerkvlekken</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ten Caote plas 1, Neede</t>
+          <t>Havelter Schapendrift 9, Havelte</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
@@ -776,614 +776,614 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Albert Heijn</t>
+          <t>Bosbad Hoogersmilde</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Borculoseweg 11, Neede</t>
+          <t>Bosweg 13E, Hoogersmilde</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zwemschool Annette</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Diepenheimsestraat 3, Hengevelde</t>
+          <t>Lheeweg 13, Dwingeloo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AH Spoorstraat</t>
+          <t>Nijeveense plas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spoorstraat 30, Haaksbergen</t>
+          <t>Binnenweg 6, Nijeveen</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E15" t="n">
+        <v>56</v>
+      </c>
+      <c r="F15" t="n">
         <v>21</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zwemschool Musculus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jonkheer von Heijdenstraat 21, Haaksbergen</t>
+          <t>Middenweg 18, Steenwijk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ALDI</t>
+          <t>Aqua Sport Zwembadtechniek B.V.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jonkheer von Heijdenstraat 22, Haaksbergen</t>
+          <t>Eesergaard, Eeser Boulevard 19, Steenwijk</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sporthal Steenwijk</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ferdinand Bolstraat 11, Haaksbergen</t>
+          <t>Het Slingerbos, Gagelsweg 25, Steenwijk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPAR express Neede</t>
+          <t>Zwembad Ruinen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rondweg 14, Neede</t>
+          <t>Oude Benderseweg 9, Ruinen</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLUS Leusink</t>
+          <t>Gemeente De Wolden Zwembad Engeland</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Veldmaterstraat 174, Haaksbergen</t>
+          <t>Oude Benderseweg 11, Ruinen</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Action Haaksbergen</t>
+          <t>Openluchtzwembad De Dobbe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Doctor Prinsstraat 2, Haaksbergen</t>
+          <t>Elsweg 4, Noordwolde</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Maatschap ter Huurne</t>
+          <t>Klimbos Appelscha</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Slotsweg 13, Hengevelde</t>
+          <t>Boerestreek 8, Appelscha</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Autoservice Knoop</t>
+          <t>Adventurous climbing Paasloo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Stepelo, Textielstraat 26, Haaksbergen</t>
+          <t>Paasloërweg 14A, Paasloo</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Eko Twente</t>
+          <t>Klimpark De Roggeberg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Goorsestraat 22, Hengevelde</t>
+          <t>De Roggeberg 1, Appelscha</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>De Vrolijke Pompoen</t>
+          <t>Klimavontuur Meppel</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Borculoseweg 16, Neede</t>
+          <t>Badweg 1, Meppel</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G &amp; W Health Store</t>
+          <t>VR-Innovations</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Blankenburgerstraat 18, Haaksbergen</t>
+          <t>Dokter Klinkertweg 12A, Zwolle</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AH Haviksberg</t>
+          <t>playvault</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Haviksberg 51, Hoogerheide</t>
+          <t>Janssenlaan 10-5, Drachten</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>The Park Playground Kobalt Zwolle</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Raadhuisstraat 87, Hoogerheide</t>
+          <t>Rieteweg 4, Zwolle</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Virrea</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bergsestraat 10, Huijbergen</t>
+          <t>Dokter Spanjaardweg 11, Zwolle</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLUS Suijkerbuijk</t>
+          <t>The Game District</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hondseind 14, Ossendrecht</t>
+          <t>Molenraai 5, Sappemeer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ALDI</t>
+          <t>Binky's Gameplay B.V.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Haviksberg 4, Hoogerheide</t>
+          <t>Paardendreef 45, Noordwolde</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SPAR express Hoogerheide</t>
+          <t>Gotcha Outdoor Lasergames Appelscha</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Antwerpsestraatweg 163, Hoogerheide</t>
+          <t>De Roggeberg 1, Appelscha</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F32" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Spar Essen Heikant</t>
+          <t>IkWilLasergamen.nl</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Heikantstraat 129, Essen</t>
+          <t>De Schuilplaats 9, Meppel</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Krowka polski supermarkt slijterij</t>
+          <t>aMAZEing</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>De brouwerij 16, Ossendrecht</t>
+          <t>Van Helomaweg 14, Havelte</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
         <v>11</v>
@@ -1392,549 +1392,549 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Star Market</t>
+          <t>Westerbergen Entertainment Centrum</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Antwerpsestraatweg 163, Hoogerheide</t>
+          <t>Oshaarseweg 24, Echten</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F35" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Melktap Juul</t>
+          <t>Escaperoom Meppel</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ossendrecht</t>
+          <t>Steenwijkerstraatweg 10, Meppel</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mini Supermarkt (tabak)</t>
+          <t>Escaperoom Dwingeloo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Spoorwegstraat 1, Essen</t>
+          <t>Brink 23, Dwingeloo</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Action Hoogerheide</t>
+          <t>Escaperoom dieverbrug</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RaadhuisPassage, Hof van Holland 13, Hoogerheide</t>
+          <t>Rijksweg 40, Dieverbrug</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Euro-Fruit Toppers</t>
+          <t>Break In Battle</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>De Jasmijn 23, Hoogerheide</t>
+          <t>Steenwijkerweg 119, De Blesse</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aspergrow Holding B.V.</t>
+          <t>Escaperoom De Poppendokter Meppel</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Molenstraat 60, Ossendrecht</t>
+          <t>Oosteinde 21, Meppel</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E40" t="n">
+        <v>63</v>
+      </c>
+      <c r="F40" t="n">
         <v>21</v>
-      </c>
-      <c r="F40" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Groenendries, Huijbergen</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Quiosk Hoogerheide</t>
+          <t>The Worst Hotel</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Plesmanlaan 2, Hoogerheide</t>
+          <t>Steenwijkerstraatweg 10, Meppel</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Albert Heijn</t>
+          <t>Escaperoom Drenthe</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Johanna van Burenlaan 222, Oldenzaal</t>
+          <t>Wittelterweg 24, Wittelte</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>The Big Apple</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
+          <t>X84M+WQ, Appelscha</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>The London City Coaster</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>De Brink 46, Losser</t>
+          <t>Noorder Es 1, Appelscha</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dirk van den Broek</t>
+          <t>Mini-Jet</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rijnstraat 84, Enschede</t>
+          <t>Noorder Es 1, Appelscha</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F45" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AH In den Vijfhoek</t>
+          <t>Airtrampoline Spur</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>In Den Vijfhoek 1, Oldenzaal</t>
+          <t>Noorder Es 1, Appelscha</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F46" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PLUS van Haaren</t>
+          <t>Duinen Zathe Amusement Park</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hoofdstraat 163, Overdinkel</t>
+          <t>Noorder Es 1, Appelscha</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Supermarkten In Oldenzaal</t>
+          <t>Basic-Fit Fitness Hoogeveen Pesserstraat</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
+          <t>Pesserstraat 33, Hoogeveen</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AH Rijnstraat</t>
+          <t>Basic-Fit Fitness Meppel Blankenstein</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rijnstraat 20, Enschede</t>
+          <t>Blankenstein 275, Meppel</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F49" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lidl</t>
+          <t>Basic-Fit Fitness Hoogeveen Duymaer of Twistweg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Molenstraat 16, Oldenzaal</t>
+          <t>Duymaer van Twistweg 6, Hoogeveen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Deppenbroek</t>
+          <t>Sportschool HIER! Tuk</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rijnstraat 20, Enschede</t>
+          <t>Roomweg 9, Tuk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F51" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AH Burg Wallerstraat</t>
+          <t>Anytime Fitness Steenwijk</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
+          <t>Woldpoort 3, Steenwijk</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Oosteinde 14, Wapserveen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Fit Giethoorn</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Langenkamp 5, Losser</t>
+          <t>Cornelisgracht 28, Giethoorn</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AH Langenkamp</t>
+          <t>Jumbo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Langenkamp 8, Losser</t>
+          <t>Zwaluwstraat 11, Neede</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,26 +1943,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F54" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SPAR Schreur</t>
+          <t>Jumbo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Plechelmusstraat 4, De Lutte</t>
+          <t>Stationsstraat 12, Haaksbergen</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,26 +1971,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>Lidl</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brouwerijplein 55, Enschede</t>
+          <t>Ten Caote plas 1, Neede</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,26 +1999,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F56" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ALDI Overdinkel</t>
+          <t>Albert Heijn</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hoofdstraat 189-195, Overdinkel</t>
+          <t>Borculoseweg 11, Neede</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F57" t="n">
         <v>11</v>
@@ -2036,17 +2036,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ALDI</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Henegouwenlaan 56, Oldenzaal</t>
+          <t>Diepenheimsestraat 3, Hengevelde</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,26 +2055,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Supermarkten In Oldenzaal</t>
+          <t>AH Spoorstraat</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
+          <t>Spoorstraat 30, Haaksbergen</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2086,23 +2086,23 @@
         <v>21</v>
       </c>
       <c r="F59" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Alsheikh Markt</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Burgemeester Wallerstraat 161, Oldenzaal</t>
+          <t>Jonkheer von Heijdenstraat 21, Haaksbergen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,38 +2111,4462 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ALDI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Jonkheer von Heijdenstraat 22, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>23</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ferdinand Bolstraat 11, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SPAR express Neede</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rondweg 14, Neede</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>19</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PLUS Leusink</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Veldmaterstraat 174, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>21</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Action Haaksbergen</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Doctor Prinsstraat 2, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>22</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Maatschap ter Huurne</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Slotsweg 13, Hengevelde</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>19</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Autoservice Knoop</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Stepelo, Textielstraat 26, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>21</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Eko Twente</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Goorsestraat 22, Hengevelde</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>17</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>De Vrolijke Pompoen</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Borculoseweg 16, Neede</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>23</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>G &amp; W Health Store</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Blankenburgerstraat 18, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>20</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cone Berkelland zwembad 't spilbroek</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Neede</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>24</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Optisport pool De Wilder</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Scholtenhagenweg 32, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>21</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Het Vleer (voorheen zwembad)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Neede</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>16</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Optisport | Sportcentrum met Zwembad &amp; Fitness Health Club Neede</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Bleekenweg 14, Neede</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>24</v>
+      </c>
+      <c r="F74" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Treetop climbing Achterhoek</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Hengeloseweg 2, Ruurlo</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>73</v>
+      </c>
+      <c r="F75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Klimbos Rutbeek</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Blikkersmaatweg 15, Enschede</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>44</v>
+      </c>
+      <c r="F76" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AvaTarZ climbing forest</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hengelosestraat 230, Deurningen</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>74</v>
+      </c>
+      <c r="F77" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Het Coole Klim en Klauterbos</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Larikslaan 24, Barchem</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>71</v>
+      </c>
+      <c r="F78" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Klimbos, Escaperoom Rutbeek, Buitenhoff Outdoor, Klimbos Enschede</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Blikkersmaatweg 15, Enschede</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>47</v>
+      </c>
+      <c r="F79" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Conceptlicious / Design, Virtual Reality &amp; Games</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ariënsplein, Enschede</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>59</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>The Game Box</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Marktstraat 10, Enschede</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>60</v>
+      </c>
+      <c r="F81" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Serious XR</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Het Rozendaal 11, Enschede</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>66</v>
+      </c>
+      <c r="F82" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ZERO55 Enschede</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Colosseum 84, Enschede</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>57</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Gameshop Twente</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Van Loenshof 2, Enschede</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>60</v>
+      </c>
+      <c r="F84" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>belgianrails-project</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Geulstraat, Enschede</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>68</v>
+      </c>
+      <c r="F85" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Easysee | Virtual &amp; Augmented Reality</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Granaatstraat 78, Hengelo</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>37</v>
+      </c>
+      <c r="F86" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Laser Game Hengelo - the Tapperij</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Pastoriestraat 33, Hengelo</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>47</v>
+      </c>
+      <c r="F87" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Lasergame Warriors</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Blikkersmaatweg 15, Enschede</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>41</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>StarWorld paintball and laser tag</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>J J Van Deinselaan 28, Enschede</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>61</v>
+      </c>
+      <c r="F89" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Lasergame Uitje</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Oranjerie 1, Borculo</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>45</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Outdoor Labyrinth</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Welenmosweg 1, Enschede</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>32</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ZERO55 Enschede</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Colosseum 84, Enschede</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>57</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Escape Room Twente</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Hengevelderweg 3, Diepenheim</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>22</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Escape room Hof te Langelo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Aaftinksweg 13, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>19</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Escape Room Delden</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Spoorstraat 16, Delden</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>44</v>
+      </c>
+      <c r="F95" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Brommerskiek’n</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Hengevelderweg 3, Diepenheim</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>21</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Freules Van Beckum</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Hengevelderweg 3, Diepenheim</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>21</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>De Weijenborg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Spoorstraat 16, Delden</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>44</v>
+      </c>
+      <c r="F98" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Attractiepark de Waarbeek</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Twekkelerweg 327, Hengelo</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>46</v>
+      </c>
+      <c r="F99" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Avonturenpark Vlaskamp</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Mulderskamp 14, Goor</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>32</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Hof van Eckberge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Lintveldseweg 1a, Eibergen</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>39</v>
+      </c>
+      <c r="F101" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Achtbaan Rupsje MAE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Twekkelerweg 327, Hengelo</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>48</v>
+      </c>
+      <c r="F102" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Speeltuin Watertorenpark</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Hengelo</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>50</v>
+      </c>
+      <c r="F103" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Basic-Fit Haaksbergen Hibbertsstraat</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Hibbertsstraat 5, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>21</v>
+      </c>
+      <c r="F104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Basic-Fit Gym Hengelo Lansinkesweg</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Lansinkesweg 2, Hengelo</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>46</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Parkeerplaats Basic-Fit</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Lansinkveste, Lansinkesweg 4, Hengelo</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>46</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Serieus Personal Training</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Lansinkesweg 2, Hengelo</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>46</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Anytime Fitness Neede</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Oudestraat 16, Neede</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>22</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Alivio Personal Training Studio | Sportschool, Fitness, Sporten</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sterrebosstraat 8, Blankenburgerstraat 29, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>22</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Marktvelderweg, Haaksbergen</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Time2Move</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Paulinastraat 40, Hengelo</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>43</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>AH Haviksberg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Haviksberg 51, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>17</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Raadhuisstraat 87, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>16</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Bergsestraat 10, Huijbergen</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PLUS Suijkerbuijk</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Hondseind 14, Ossendrecht</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>20</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ALDI</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Haviksberg 4, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>21</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SPAR express Hoogerheide</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Antwerpsestraatweg 163, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>26</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Spar Essen Heikant</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Heikantstraat 129, Essen</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>22</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Krowka polski supermarkt slijterij</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>De brouwerij 16, Ossendrecht</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>20</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Star Market</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Antwerpsestraatweg 163, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>26</v>
+      </c>
+      <c r="F119" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Melktap Juul</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ossendrecht</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>25</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mini Supermarkt (tabak)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Spoorwegstraat 1, Essen</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>23</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Action Hoogerheide</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>RaadhuisPassage, Hof van Holland 13, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>16</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Euro-Fruit Toppers</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>De Jasmijn 23, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>20</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Aspergrow Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Molenstraat 60, Ossendrecht</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>21</v>
+      </c>
+      <c r="F124" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Quiosk Hoogerheide</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Plesmanlaan 2, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>15</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Laco zwembad Hoogerheide</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sportlaan 4, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>14</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>De Plantage</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sportlaan, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>15</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ZWEMBADTECHNIEK TEMPELAARS</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Molenbosstraat 8, Ossendrecht</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>20</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Recreatiepark Familyland</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Groene Papegaai 19, Hoogerheide</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Climbing Brabantse Wal BV</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Boslustweg 1, Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>31</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Climbing Park Biesbosch</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Kurenpolderweg 31, Hank</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>195</v>
+      </c>
+      <c r="F131" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Klimpark De Mosten</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Hoogeind 74b, Hoogstraten</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>102</v>
+      </c>
+      <c r="F132" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Indoor Klim Bos De Belhamel</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Brugdam 17, Lage Zwaluwe</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>149</v>
+      </c>
+      <c r="F133" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>The Park Playground VR Antwerp</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Vlaamsekaai 30, Antwerpen</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>95</v>
+      </c>
+      <c r="F134" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Zero Latency Antwerpen</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Riemstraat 45, Antwerpen</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>95</v>
+      </c>
+      <c r="F135" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Outpost Gamecenter</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Beggaardenstraat 6, Antwerpen</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>93</v>
+      </c>
+      <c r="F136" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>The Park</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Belgiëlei 143, Antwerpen</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>97</v>
+      </c>
+      <c r="F137" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>In4outdoor</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Boerengorseweg 1, Nieuw-Vossemeer</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>89</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lasergamen Etten-Leur</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Binnenhof 7, Etten-Leur</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>96</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Totalexperience</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Kattenhoflaan 87, Brecht</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>77</v>
+      </c>
+      <c r="F140" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Laserbattle Etten-Leur</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Binnenhof 7, Etten-Leur</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>96</v>
+      </c>
+      <c r="F141" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Level One Game Hal</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Markiezaatsweg 7, Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>41</v>
+      </c>
+      <c r="F142" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Escape Room 0164</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Kortemeestraat 18, Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>43</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Escaperoom The Deep</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Oesterdam 3, Tholen</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>75</v>
+      </c>
+      <c r="F144" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Escape Roosendaal</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>De Stok 10A, Roosendaal</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>51</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Escape the Gate</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Lievevrouwestraat 60, Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>42</v>
+      </c>
+      <c r="F146" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Escape-skillz</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Wouwbaan 143 A, Roosendaal</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>43</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Clocks Escape Room</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Statieplein 2, Kalmthout</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>27</v>
+      </c>
+      <c r="F148" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Laagwater - Events &amp; Escape rooms</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sint Jobsesteenweg 64, Brasschaat</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>61</v>
+      </c>
+      <c r="F149" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Plopsa Station Antwerp</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Mediaplein, Antwerpen</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>91</v>
+      </c>
+      <c r="F150" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Mega Speelstad</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Voetbalstraat 16, Lille</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>133</v>
+      </c>
+      <c r="F151" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Hidrodoe</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Haanheuvel 7, Herentals</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>168</v>
+      </c>
+      <c r="F152" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Aquapark JUMP</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Vossekotstraat, Sint-Niklaas</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>149</v>
+      </c>
+      <c r="F153" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Basic-Fit Bergen op Zoom Markiezaatsweg 24/7</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Burgemeester van der Laarstraat 9, Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>41</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Basic-Fit Fitness Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Bastionweg 30, Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>43</v>
+      </c>
+      <c r="F155" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Basic-Fit Kalmthout Kapellensteenweg</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Kapellensteenweg 117, Kalmthout</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>30</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>EasyFit Premium Essen</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Beliestraat 23, Essen</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>27</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Fitzone Fitnesscentrum</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Antwerpsestraat 240, Putte</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>31</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>Groenendries, Huijbergen</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Fit For Free Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>De Boulevard Noord 2, Bergen op Zoom</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>40</v>
+      </c>
+      <c r="F159" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
           <t>Oldenzaalsestraat 135, Losser</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Albert Heijn</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Johanna van Burenlaan 222, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>24</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>21</v>
+      </c>
+      <c r="F161" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>De Brink 46, Losser</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>12</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Dirk van den Broek</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rijnstraat 84, Enschede</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>32</v>
+      </c>
+      <c r="F163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>AH In den Vijfhoek</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>In Den Vijfhoek 1, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>20</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PLUS van Haaren</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Hoofdstraat 163, Overdinkel</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>26</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Supermarkten In Oldenzaal</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>14</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>AH Rijnstraat</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Rijnstraat 20, Enschede</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>31</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Lidl</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Molenstraat 16, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>21</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Deppenbroek</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rijnstraat 20, Enschede</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>31</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>AH Burg Wallerstraat</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>14</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Langenkamp 5, Losser</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>11</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>AH Langenkamp</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Langenkamp 8, Losser</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>11</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SPAR Schreur</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Plechelmusstraat 4, De Lutte</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>21</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Jumbo</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Brouwerijplein 55, Enschede</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>34</v>
+      </c>
+      <c r="F174" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ALDI Overdinkel</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Hoofdstraat 189-195, Overdinkel</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>26</v>
+      </c>
+      <c r="F175" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ALDI</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Henegouwenlaan 56, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>23</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Supermarkten In Oldenzaal</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>21</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Alsheikh Markt</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Burgemeester Wallerstraat 161, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Supermarkt</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>14</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>Selam Market Roombeek</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Roomweg 73, Enschede</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>Supermarkt</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="E179" t="n">
         <v>34</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F179" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>AC De Kikker</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Losser</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Swimming Brilmansdennen</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Bookholtlaan 11, Losser</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>13</v>
+      </c>
+      <c r="F181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Nijhuishandel</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Merelstraat 22A, De Lutte</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>20</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Sports Vondersweijde</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Ada Kokstraat 20, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>22</v>
+      </c>
+      <c r="F183" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Zwembadcenter</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Merelstraat 22A, De Lutte</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>20</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ZIN in zwemmen</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Eektestraat 36, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>16</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Trifora Sports &amp; Health Club Enschede</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Kotkampweg 65, Enschede</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Zwembad</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>33</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Klimbos Rutbeek</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Blikkersmaatweg 15, Enschede</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>60</v>
+      </c>
+      <c r="F187" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>AvaTarZ climbing forest</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Hengelosestraat 230, Deurningen</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>23</v>
+      </c>
+      <c r="F188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Klimbos Winterswijk</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Bataafseweg, Winterswijk</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>146</v>
+      </c>
+      <c r="F189" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Klimbos, Escaperoom Rutbeek, Buitenhoff Outdoor, Klimbos Enschede</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Blikkersmaatweg 15, Enschede</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Klimbos</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>60</v>
+      </c>
+      <c r="F190" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Conceptlicious / Design, Virtual Reality &amp; Games</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Ariënsplein, Enschede</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>40</v>
+      </c>
+      <c r="F191" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Virtual Reality Game Planet</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Leijdsweg 65, Enschede</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>39</v>
+      </c>
+      <c r="F192" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>The Game Box</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Marktstraat 10, Enschede</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>37</v>
+      </c>
+      <c r="F193" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Serious XR</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Het Rozendaal 11, Enschede</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>34</v>
+      </c>
+      <c r="F194" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ZERO55 Enschede</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Colosseum 84, Enschede</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>53</v>
+      </c>
+      <c r="F195" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Gameshop Twente</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Van Loenshof 2, Enschede</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>38</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>belgianrails-project</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Geulstraat, Enschede</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>VR Game</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>31</v>
+      </c>
+      <c r="F197" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Lasergame Warriors</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Blikkersmaatweg 15, Enschede</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>60</v>
+      </c>
+      <c r="F198" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Laser Game Hengelo - the Tapperij</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Pastoriestraat 33, Hengelo</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>49</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>StarWorld paintball and laser tag</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>J J Van Deinselaan 28, Enschede</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>43</v>
+      </c>
+      <c r="F200" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Gotcha Outdoor Lasergames Oldenzaal</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Oude Almeloseweg 11, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>28</v>
+      </c>
+      <c r="F201" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ZERO55 Enschede</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Colosseum 84, Enschede</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>53</v>
+      </c>
+      <c r="F202" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Outdoor laserTag Nordhorn Bonanza verleih</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Grenzweg 5, Nordhorn</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>58</v>
+      </c>
+      <c r="F203" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Outdoor Labyrinth</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Welenmosweg 1, Enschede</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>66</v>
+      </c>
+      <c r="F204" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Lasergame Kinderfeestje</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Twekkelerweg 337, Hengelo</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Lasergame</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>59</v>
+      </c>
+      <c r="F205" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Escape De Kist Enschede</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Voortsweg 69, Enschede</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>33</v>
+      </c>
+      <c r="F206" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Historical Museum "The Palthehuis"</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Marktstraat 13, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>20</v>
+      </c>
+      <c r="F207" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Rouwhorst Dance &amp; Partycentrum</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Ootmarsumsestraat 9, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>21</v>
+      </c>
+      <c r="F208" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>AvaTarZ climbing forest</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Hengelosestraat 230, Deurningen</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Escaperoom</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>23</v>
+      </c>
+      <c r="F209" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Attractiepark de Waarbeek</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Twekkelerweg 327, Hengelo</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>56</v>
+      </c>
+      <c r="F210" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Waterspeeltuin Hulsbeek</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>29</v>
+      </c>
+      <c r="F211" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Achtbaan Rupsje MAE</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Twekkelerweg 327, Hengelo</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>57</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Ballorig Enschede</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>J J Van Deinselaan 30, Enschede</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>42</v>
+      </c>
+      <c r="F213" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Speeltuin Watertorenpark</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Hengelo</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>50</v>
+      </c>
+      <c r="F214" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Basic-Fit Oldenzaal Nagelstraat 24/7</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Nagelstraat 40, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>21</v>
+      </c>
+      <c r="F215" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Sportcentrum Spectral Fit</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Spinnersweg 168, Overdinkel</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>27</v>
+      </c>
+      <c r="F216" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Gym-Fit Sportschool Losser</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>De Zoeker Esch 2A, Losser</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>17</v>
+      </c>
+      <c r="F217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Approach Fitness</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Ada Kokstraat 20, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>22</v>
+      </c>
+      <c r="F218" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Fitness Gym Makoto Oldenzaal</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Bentheimergraven 15, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>23</v>
+      </c>
+      <c r="F219" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/Huisjes.xlsx
+++ b/data/processed/Huisjes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,24 +585,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>In den Uylenbal</t>
+          <t>The pool Waterwyck</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Peperstraat 13, Diever</t>
+          <t>Gagelsweg 25, Steenwijk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -613,24 +613,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Boerderijwinkel Nieuwenhuis</t>
+          <t>Bosbad Vledder</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Smeenholtenweg 2, Uffelte</t>
+          <t>Vledderweg 21, Vledder</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -641,24 +641,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>De Timmerwinkel</t>
+          <t>Zwembad De Kerkvlekken</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kon. Wilhelminalaan 89, Frederiksoord</t>
+          <t>Havelter Schapendrift 9, Havelte</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -669,24 +669,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Landgoedwinkel "De Veenhoeve"</t>
+          <t>Bosbad Hoogersmilde</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dwingelerweg 21, Ansen</t>
+          <t>Bosweg 13E, Hoogersmilde</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -697,12 +697,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The pool Waterwyck</t>
+          <t>Zwemschool Annette</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gagelsweg 25, Steenwijk</t>
+          <t>Lheeweg 13, Dwingeloo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -725,12 +725,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bosbad Vledder</t>
+          <t>Zwemschool Musculus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vledderweg 21, Vledder</t>
+          <t>Middenweg 18, Steenwijk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -753,12 +753,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zwembad De Kerkvlekken</t>
+          <t>Aqua Sport Zwembadtechniek B.V.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Havelter Schapendrift 9, Havelte</t>
+          <t>Eesergaard, Eeser Boulevard 19, Steenwijk</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -781,12 +781,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bosbad Hoogersmilde</t>
+          <t>Nijeveense plas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bosweg 13E, Hoogersmilde</t>
+          <t>Binnenweg 6, Nijeveen</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -809,12 +809,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zwemschool Annette</t>
+          <t>Sporthal Steenwijk</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lheeweg 13, Dwingeloo</t>
+          <t>Het Slingerbos, Gagelsweg 25, Steenwijk</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -837,12 +837,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nijeveense plas</t>
+          <t>Openluchtzwembad De Dobbe</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Binnenweg 6, Nijeveen</t>
+          <t>Elsweg 4, Noordwolde</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -865,12 +865,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zwemschool Musculus</t>
+          <t>Zwembad Ruinen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Middenweg 18, Steenwijk</t>
+          <t>Oude Benderseweg 9, Ruinen</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -893,12 +893,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aqua Sport Zwembadtechniek B.V.</t>
+          <t>Gemeente De Wolden Zwembad Engeland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eesergaard, Eeser Boulevard 19, Steenwijk</t>
+          <t>Oude Benderseweg 11, Ruinen</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -921,12 +921,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sporthal Steenwijk</t>
+          <t>Beleefpark Dwingeloo (incl. zwembad)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Het Slingerbos, Gagelsweg 25, Steenwijk</t>
+          <t>Anserpad 2, Dwingeloo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -949,24 +949,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zwembad Ruinen</t>
+          <t>Klimbos Appelscha</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Oude Benderseweg 9, Ruinen</t>
+          <t>Boerestreek 8, Appelscha</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Zwembad</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -977,24 +977,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gemeente De Wolden Zwembad Engeland</t>
+          <t>Adventurous climbing Paasloo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oude Benderseweg 11, Ruinen</t>
+          <t>Paasloërweg 14A, Paasloo</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Zwembad</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1005,24 +1005,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Openluchtzwembad De Dobbe</t>
+          <t>Klimpark De Roggeberg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Elsweg 4, Noordwolde</t>
+          <t>De Roggeberg 1, Appelscha</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Zwembad</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1033,12 +1033,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Klimbos Appelscha</t>
+          <t>Klimavontuur Meppel</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Boerestreek 8, Appelscha</t>
+          <t>Badweg 1, Meppel</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -1061,24 +1061,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adventurous climbing Paasloo</t>
+          <t>VR-Innovations</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Paasloërweg 14A, Paasloo</t>
+          <t>Dokter Klinkertweg 12A, Zwolle</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Klimbos</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -1089,24 +1089,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Klimpark De Roggeberg</t>
+          <t>playvault</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>De Roggeberg 1, Appelscha</t>
+          <t>Janssenlaan 10-5, Drachten</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Klimbos</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -1117,24 +1117,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Klimavontuur Meppel</t>
+          <t>The Park Playground Kobalt Zwolle</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Badweg 1, Meppel</t>
+          <t>Rieteweg 4, Zwolle</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Klimbos</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VR-Innovations</t>
+          <t>Virrea</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dokter Klinkertweg 12A, Zwolle</t>
+          <t>Dokter Spanjaardweg 11, Zwolle</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>playvault</t>
+          <t>The Game District</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Janssenlaan 10-5, Drachten</t>
+          <t>Molenraai 5, Sappemeer</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Park Playground Kobalt Zwolle</t>
+          <t>Binky's Gameplay B.V.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rieteweg 4, Zwolle</t>
+          <t>Paardendreef 45, Noordwolde</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="F28" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1229,24 +1229,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Virrea</t>
+          <t>Lasergame huren Assen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dokter Spanjaardweg 11, Zwolle</t>
+          <t>De Wouden 112, Assen</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VR Game</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1257,24 +1257,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Game District</t>
+          <t>Gotcha Outdoor Lasergames Appelscha</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Molenraai 5, Sappemeer</t>
+          <t>De Roggeberg 1, Appelscha</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VR Game</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="F30" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1285,24 +1285,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Binky's Gameplay B.V.</t>
+          <t>IkWilLasergamen.nl</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Paardendreef 45, Noordwolde</t>
+          <t>De Schuilplaats 9, Meppel</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VR Game</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gotcha Outdoor Lasergames Appelscha</t>
+          <t>Lasergame Hoogeveen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>De Roggeberg 1, Appelscha</t>
+          <t>Irisstraat 19, Hoogeveen</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IkWilLasergamen.nl</t>
+          <t>Bart and Bites</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>De Schuilplaats 9, Meppel</t>
+          <t>Domoweg 1, Beilen</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1397,24 +1397,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Westerbergen Entertainment Centrum</t>
+          <t>Escaperoom Meppel</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Oshaarseweg 24, Echten</t>
+          <t>Steenwijkerstraatweg 10, Meppel</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Lasergame</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Escaperoom Meppel</t>
+          <t>Escaperoom Dwingeloo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Steenwijkerstraatweg 10, Meppel</t>
+          <t>Brink 23, Dwingeloo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Escaperoom Dwingeloo</t>
+          <t>Escaperoom dieverbrug</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brink 23, Dwingeloo</t>
+          <t>Rijksweg 40, Dieverbrug</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Escaperoom dieverbrug</t>
+          <t>Break In Battle</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rijksweg 40, Dieverbrug</t>
+          <t>Steenwijkerweg 119, De Blesse</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Break In Battle</t>
+          <t>Escaperoom De Poppendokter Meppel</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Steenwijkerweg 119, De Blesse</t>
+          <t>Oosteinde 21, Meppel</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1537,12 +1537,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Escaperoom De Poppendokter Meppel</t>
+          <t>The Worst Hotel</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Oosteinde 21, Meppel</t>
+          <t>Steenwijkerstraatweg 10, Meppel</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The Worst Hotel</t>
+          <t>Escaperoom Drenthe</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Steenwijkerstraatweg 10, Meppel</t>
+          <t>Wittelterweg 24, Wittelte</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1593,24 +1593,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Escaperoom Drenthe</t>
+          <t>The Big Apple</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wittelterweg 24, Wittelte</t>
+          <t>X84M+WQ, Appelscha</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Escaperoom</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1621,12 +1621,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Big Apple</t>
+          <t>The London City Coaster</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>X84M+WQ, Appelscha</t>
+          <t>Noorder Es 1, Appelscha</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The London City Coaster</t>
+          <t>Mini-Jet</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mini-Jet</t>
+          <t>Airtrampoline Spur</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Airtrampoline Spur</t>
+          <t>Duinen Zathe Amusement Park</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1733,24 +1733,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Duinen Zathe Amusement Park</t>
+          <t>Basic-Fit Fitness Hoogeveen Pesserstraat</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Noorder Es 1, Appelscha</t>
+          <t>Pesserstraat 33, Hoogeveen</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pretpark</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Basic-Fit Fitness Hoogeveen Pesserstraat</t>
+          <t>Basic-Fit Fitness Meppel Blankenstein</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pesserstraat 33, Hoogeveen</t>
+          <t>Blankenstein 275, Meppel</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F48" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Basic-Fit Fitness Meppel Blankenstein</t>
+          <t>Basic-Fit Fitness Hoogeveen Duymaer of Twistweg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Blankenstein 275, Meppel</t>
+          <t>Duymaer van Twistweg 6, Hoogeveen</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Basic-Fit Fitness Hoogeveen Duymaer of Twistweg</t>
+          <t>Sportschool HIER! Tuk</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Duymaer van Twistweg 6, Hoogeveen</t>
+          <t>Roomweg 9, Tuk</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F50" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sportschool HIER! Tuk</t>
+          <t>Anytime Fitness Steenwijk</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Roomweg 9, Tuk</t>
+          <t>Woldpoort 3, Steenwijk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F51" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Anytime Fitness Steenwijk</t>
+          <t>Fit Giethoorn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Woldpoort 3, Steenwijk</t>
+          <t>Cornelisgracht 28, Giethoorn</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,38 +1887,38 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Oosteinde 14, Wapserveen</t>
+          <t>Marktvelderweg, Haaksbergen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fit Giethoorn</t>
+          <t>Jumbo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cornelisgracht 28, Giethoorn</t>
+          <t>Zwaluwstraat 11, Neede</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Basic Fit</t>
+          <t>Supermarkt</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F53" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Zwaluwstraat 11, Neede</t>
+          <t>Stationsstraat 12, Haaksbergen</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>Lidl</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Stationsstraat 12, Haaksbergen</t>
+          <t>Ten Caote plas 1, Neede</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lidl</t>
+          <t>Albert Heijn</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ten Caote plas 1, Neede</t>
+          <t>Borculoseweg 11, Neede</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2002,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Albert Heijn</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Borculoseweg 11, Neede</t>
+          <t>Diepenheimsestraat 3, Hengevelde</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>AH Spoorstraat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Diepenheimsestraat 3, Hengevelde</t>
+          <t>Spoorstraat 30, Haaksbergen</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AH Spoorstraat</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Spoorstraat 30, Haaksbergen</t>
+          <t>Jonkheer von Heijdenstraat 21, Haaksbergen</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -2097,12 +2097,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>ALDI</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jonkheer von Heijdenstraat 21, Haaksbergen</t>
+          <t>Jonkheer von Heijdenstraat 22, Haaksbergen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2125,12 +2125,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ALDI</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jonkheer von Heijdenstraat 22, Haaksbergen</t>
+          <t>Ferdinand Bolstraat 11, Haaksbergen</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>SPAR express Neede</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ferdinand Bolstraat 11, Haaksbergen</t>
+          <t>Rondweg 14, Neede</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F62" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SPAR express Neede</t>
+          <t>PLUS Leusink</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rondweg 14, Neede</t>
+          <t>Veldmaterstraat 174, Haaksbergen</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PLUS Leusink</t>
+          <t>Action Haaksbergen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Veldmaterstraat 174, Haaksbergen</t>
+          <t>Doctor Prinsstraat 2, Haaksbergen</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Action Haaksbergen</t>
+          <t>Maatschap ter Huurne</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Doctor Prinsstraat 2, Haaksbergen</t>
+          <t>Slotsweg 13, Hengevelde</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Maatschap ter Huurne</t>
+          <t>Autoservice Knoop</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Slotsweg 13, Hengevelde</t>
+          <t>Stepelo, Textielstraat 26, Haaksbergen</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2293,12 +2293,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Autoservice Knoop</t>
+          <t>Eko Twente</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Stepelo, Textielstraat 26, Haaksbergen</t>
+          <t>Goorsestraat 22, Hengevelde</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Eko Twente</t>
+          <t>De Vrolijke Pompoen</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Goorsestraat 22, Hengevelde</t>
+          <t>Borculoseweg 16, Neede</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F68" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -2349,12 +2349,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>De Vrolijke Pompoen</t>
+          <t>G &amp; W Health Store</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Borculoseweg 16, Neede</t>
+          <t>Blankenburgerstraat 18, Haaksbergen</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -2377,24 +2377,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>G &amp; W Health Store</t>
+          <t>Cone Berkelland zwembad 't spilbroek</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Blankenburgerstraat 18, Haaksbergen</t>
+          <t>Neede</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F70" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cone Berkelland zwembad 't spilbroek</t>
+          <t>Optisport pool De Wilder</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Neede</t>
+          <t>Scholtenhagenweg 32, Haaksbergen</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Optisport pool De Wilder</t>
+          <t>Het Vleer (voorheen zwembad)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Scholtenhagenweg 32, Haaksbergen</t>
+          <t>Neede</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F72" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Het Vleer (voorheen zwembad)</t>
+          <t>Optisport | Sportcentrum met Zwembad &amp; Fitness Health Club Neede</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Neede</t>
+          <t>Bleekenweg 14, Neede</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F73" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -2489,24 +2489,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Optisport | Sportcentrum met Zwembad &amp; Fitness Health Club Neede</t>
+          <t>Treetop climbing Achterhoek</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Bleekenweg 14, Neede</t>
+          <t>Hengeloseweg 2, Ruurlo</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Zwembad</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F74" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Treetop climbing Achterhoek</t>
+          <t>Klimbos Rutbeek</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hengeloseweg 2, Ruurlo</t>
+          <t>Blikkersmaatweg 15, Enschede</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F75" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -2545,12 +2545,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Klimbos Rutbeek</t>
+          <t>AvaTarZ climbing forest</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Blikkersmaatweg 15, Enschede</t>
+          <t>Hengelosestraat 230, Deurningen</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
@@ -2573,12 +2573,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AvaTarZ climbing forest</t>
+          <t>Het Coole Klim en Klauterbos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hengelosestraat 230, Deurningen</t>
+          <t>Larikslaan 24, Barchem</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F77" t="n">
         <v>24</v>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Het Coole Klim en Klauterbos</t>
+          <t>Klimbos, Escaperoom Rutbeek, Buitenhoff Outdoor, Klimbos Enschede</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Larikslaan 24, Barchem</t>
+          <t>Blikkersmaatweg 15, Enschede</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F78" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -2629,24 +2629,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Klimbos, Escaperoom Rutbeek, Buitenhoff Outdoor, Klimbos Enschede</t>
+          <t>Conceptlicious / Design, Virtual Reality &amp; Games</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Blikkersmaatweg 15, Enschede</t>
+          <t>Ariënsplein, Enschede</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Klimbos</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2657,12 +2657,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conceptlicious / Design, Virtual Reality &amp; Games</t>
+          <t>The Game Box</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ariënsplein, Enschede</t>
+          <t>Marktstraat 10, Enschede</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The Game Box</t>
+          <t>Serious XR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Marktstraat 10, Enschede</t>
+          <t>Het Rozendaal 11, Enschede</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F81" t="n">
         <v>24</v>
@@ -2713,12 +2713,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Serious XR</t>
+          <t>ZERO55 Enschede</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Het Rozendaal 11, Enschede</t>
+          <t>Colosseum 84, Enschede</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F82" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ZERO55 Enschede</t>
+          <t>Gameshop Twente</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Colosseum 84, Enschede</t>
+          <t>Van Loenshof 2, Enschede</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -2769,12 +2769,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gameshop Twente</t>
+          <t>belgianrails-project</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Van Loenshof 2, Enschede</t>
+          <t>Geulstraat, Enschede</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F84" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>belgianrails-project</t>
+          <t>Easysee | Virtual &amp; Augmented Reality</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Geulstraat, Enschede</t>
+          <t>Granaatstraat 78, Hengelo</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F85" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -2825,21 +2825,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Easysee | Virtual &amp; Augmented Reality</t>
+          <t>Laser Game Hengelo - the Tapperij</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Granaatstraat 78, Hengelo</t>
+          <t>Pastoriestraat 33, Hengelo</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VR Game</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F86" t="n">
         <v>19</v>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Laser Game Hengelo - the Tapperij</t>
+          <t>Lasergame Warriors</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pastoriestraat 33, Hengelo</t>
+          <t>Blikkersmaatweg 15, Enschede</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F87" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lasergame Warriors</t>
+          <t>StarWorld paintball and laser tag</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Blikkersmaatweg 15, Enschede</t>
+          <t>J J Van Deinselaan 28, Enschede</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F88" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -2909,12 +2909,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>StarWorld paintball and laser tag</t>
+          <t>Lasergame Uitje</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J J Van Deinselaan 28, Enschede</t>
+          <t>Oranjerie 1, Borculo</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lasergame Uitje</t>
+          <t>Outdoor Labyrinth</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Oranjerie 1, Borculo</t>
+          <t>Welenmosweg 1, Enschede</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F90" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Outdoor Labyrinth</t>
+          <t>ZERO55 Enschede</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Welenmosweg 1, Enschede</t>
+          <t>Colosseum 84, Enschede</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F91" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -2993,24 +2993,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ZERO55 Enschede</t>
+          <t>Escape Room Twente</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Colosseum 84, Enschede</t>
+          <t>Hengevelderweg 3, Diepenheim</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Lasergame</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Escape Room Twente</t>
+          <t>Escape room Hof te Langelo</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Hengevelderweg 3, Diepenheim</t>
+          <t>Aaftinksweg 13, Haaksbergen</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Escape room Hof te Langelo</t>
+          <t>Escape Room Delden</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Aaftinksweg 13, Haaksbergen</t>
+          <t>Spoorstraat 16, Delden</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F94" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -3077,12 +3077,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Escape Room Delden</t>
+          <t>Brommerskiek’n</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Spoorstraat 16, Delden</t>
+          <t>Hengevelderweg 3, Diepenheim</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F95" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Brommerskiek’n</t>
+          <t>Freules Van Beckum</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3133,12 +3133,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Freules Van Beckum</t>
+          <t>De Weijenborg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hengevelderweg 3, Diepenheim</t>
+          <t>Spoorstraat 16, Delden</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -3161,24 +3161,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>De Weijenborg</t>
+          <t>Attractiepark de Waarbeek</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Spoorstraat 16, Delden</t>
+          <t>Twekkelerweg 327, Hengelo</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Escaperoom</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Attractiepark de Waarbeek</t>
+          <t>Avonturenpark Vlaskamp</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Twekkelerweg 327, Hengelo</t>
+          <t>Mulderskamp 14, Goor</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F99" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Avonturenpark Vlaskamp</t>
+          <t>Hof van Eckberge</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Mulderskamp 14, Goor</t>
+          <t>Lintveldseweg 1a, Eibergen</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F100" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hof van Eckberge</t>
+          <t>Achtbaan Rupsje MAE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Lintveldseweg 1a, Eibergen</t>
+          <t>Twekkelerweg 327, Hengelo</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F101" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Achtbaan Rupsje MAE</t>
+          <t>Speeltuin Watertorenpark</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Twekkelerweg 327, Hengelo</t>
+          <t>Hengelo</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F102" t="n">
         <v>19</v>
@@ -3301,24 +3301,24 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Speeltuin Watertorenpark</t>
+          <t>Basic-Fit Haaksbergen Hibbertsstraat</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Hengelo</t>
+          <t>Hibbertsstraat 5, Haaksbergen</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Pretpark</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F103" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Basic-Fit Haaksbergen Hibbertsstraat</t>
+          <t>Basic-Fit Gym Hengelo Lansinkesweg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Hibbertsstraat 5, Haaksbergen</t>
+          <t>Lansinkesweg 2, Hengelo</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F104" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Basic-Fit Gym Hengelo Lansinkesweg</t>
+          <t>Parkeerplaats Basic-Fit</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lansinkesweg 2, Hengelo</t>
+          <t>Lansinkveste, Lansinkesweg 4, Hengelo</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3385,12 +3385,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Parkeerplaats Basic-Fit</t>
+          <t>Serieus Personal Training</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lansinkveste, Lansinkesweg 4, Hengelo</t>
+          <t>Lansinkesweg 2, Hengelo</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3413,12 +3413,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Serieus Personal Training</t>
+          <t>Anytime Fitness Neede</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Lansinkesweg 2, Hengelo</t>
+          <t>Oudestraat 16, Neede</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -3441,12 +3441,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Anytime Fitness Neede</t>
+          <t>Alivio Personal Training Studio | Sportschool, Fitness, Sporten</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Oudestraat 16, Neede</t>
+          <t>Sterrebosstraat 8, Blankenburgerstraat 29, Haaksbergen</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3458,7 +3458,7 @@
         <v>22</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Alivio Personal Training Studio | Sportschool, Fitness, Sporten</t>
+          <t>Time2Move</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sterrebosstraat 8, Blankenburgerstraat 29, Haaksbergen</t>
+          <t>Paulinastraat 40, Hengelo</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,38 +3483,38 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F109" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Marktvelderweg, Haaksbergen</t>
+          <t>Groenendries, Huijbergen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Time2Move</t>
+          <t>AH Haviksberg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Paulinastraat 40, Hengelo</t>
+          <t>Haviksberg 51, Hoogerheide</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Basic Fit</t>
+          <t>Supermarkt</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AH Haviksberg</t>
+          <t>Jumbo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Haviksberg 51, Hoogerheide</t>
+          <t>Raadhuisstraat 87, Hoogerheide</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Raadhuisstraat 87, Hoogerheide</t>
+          <t>Bergsestraat 10, Huijbergen</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>PLUS Suijkerbuijk</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bergsestraat 10, Huijbergen</t>
+          <t>Hondseind 14, Ossendrecht</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PLUS Suijkerbuijk</t>
+          <t>ALDI</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hondseind 14, Ossendrecht</t>
+          <t>Haviksberg 4, Hoogerheide</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ALDI</t>
+          <t>SPAR express Hoogerheide</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Haviksberg 4, Hoogerheide</t>
+          <t>Antwerpsestraatweg 163, Hoogerheide</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F115" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SPAR express Hoogerheide</t>
+          <t>Spar Essen Heikant</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Antwerpsestraatweg 163, Hoogerheide</t>
+          <t>Heikantstraat 129, Essen</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -3693,12 +3693,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Spar Essen Heikant</t>
+          <t>Krowka polski supermarkt slijterij</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Heikantstraat 129, Essen</t>
+          <t>De brouwerij 16, Ossendrecht</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F117" t="n">
         <v>11</v>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Krowka polski supermarkt slijterij</t>
+          <t>Star Market</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>De brouwerij 16, Ossendrecht</t>
+          <t>Antwerpsestraatweg 163, Hoogerheide</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F118" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Star Market</t>
+          <t>Melktap Juul</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Antwerpsestraatweg 163, Hoogerheide</t>
+          <t>Ossendrecht</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Melktap Juul</t>
+          <t>Mini Supermarkt (tabak)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ossendrecht</t>
+          <t>Spoorwegstraat 1, Essen</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F120" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -3805,12 +3805,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mini Supermarkt (tabak)</t>
+          <t>Action Hoogerheide</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Spoorwegstraat 1, Essen</t>
+          <t>RaadhuisPassage, Hof van Holland 13, Hoogerheide</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F121" t="n">
         <v>11</v>
@@ -3833,12 +3833,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Action Hoogerheide</t>
+          <t>Euro-Fruit Toppers</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RaadhuisPassage, Hof van Holland 13, Hoogerheide</t>
+          <t>De Jasmijn 23, Hoogerheide</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Euro-Fruit Toppers</t>
+          <t>Aspergrow Holding B.V.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>De Jasmijn 23, Hoogerheide</t>
+          <t>Molenstraat 60, Ossendrecht</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3875,10 +3875,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Aspergrow Holding B.V.</t>
+          <t>Quiosk Hoogerheide</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Molenstraat 60, Ossendrecht</t>
+          <t>Plesmanlaan 2, Hoogerheide</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F124" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
@@ -3917,24 +3917,24 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Quiosk Hoogerheide</t>
+          <t>Laco zwembad Hoogerheide</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Plesmanlaan 2, Hoogerheide</t>
+          <t>Sportlaan 4, Hoogerheide</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F125" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -3945,12 +3945,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Laco zwembad Hoogerheide</t>
+          <t>De Plantage</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sportlaan 4, Hoogerheide</t>
+          <t>Sportlaan, Hoogerheide</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F126" t="n">
         <v>8</v>
@@ -3973,12 +3973,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>De Plantage</t>
+          <t>ZWEMBADTECHNIEK TEMPELAARS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sportlaan, Hoogerheide</t>
+          <t>Molenbosstraat 8, Ossendrecht</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F127" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ZWEMBADTECHNIEK TEMPELAARS</t>
+          <t>Recreatiepark Familyland</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Molenbosstraat 8, Ossendrecht</t>
+          <t>Groene Papegaai 19, Hoogerheide</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
@@ -4029,24 +4029,24 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Recreatiepark Familyland</t>
+          <t>Climbing Brabantse Wal BV</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Groene Papegaai 19, Hoogerheide</t>
+          <t>Boslustweg 1, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Zwembad</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F129" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
@@ -4057,12 +4057,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Climbing Brabantse Wal BV</t>
+          <t>Climbing Park Biesbosch</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Boslustweg 1, Bergen op Zoom</t>
+          <t>Kurenpolderweg 31, Hank</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="F130" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Climbing Park Biesbosch</t>
+          <t>Klimpark De Mosten</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Kurenpolderweg 31, Hank</t>
+          <t>Hoogeind 74b, Hoogstraten</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="F131" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Klimpark De Mosten</t>
+          <t>Indoor Klim Bos De Belhamel</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Hoogeind 74b, Hoogstraten</t>
+          <t>Brugdam 17, Lage Zwaluwe</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F132" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
@@ -4141,24 +4141,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Indoor Klim Bos De Belhamel</t>
+          <t>The Park Playground VR Antwerp</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brugdam 17, Lage Zwaluwe</t>
+          <t>Vlaamsekaai 30, Antwerpen</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Klimbos</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="F133" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134">
@@ -4169,12 +4169,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>The Park Playground VR Antwerp</t>
+          <t>Zero Latency Antwerpen</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vlaamsekaai 30, Antwerpen</t>
+          <t>Riemstraat 45, Antwerpen</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Zero Latency Antwerpen</t>
+          <t>Outpost Gamecenter</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Riemstraat 45, Antwerpen</t>
+          <t>Beggaardenstraat 6, Antwerpen</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F135" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Outpost Gamecenter</t>
+          <t>The Park</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Beggaardenstraat 6, Antwerpen</t>
+          <t>Belgiëlei 143, Antwerpen</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F136" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137">
@@ -4253,24 +4253,24 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The Park</t>
+          <t>Level One Game Hal</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Belgiëlei 143, Antwerpen</t>
+          <t>Markiezaatsweg 7, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VR Game</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F137" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138">
@@ -4281,12 +4281,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>In4outdoor</t>
+          <t>Bowling &amp; Resto-Lounge Bergen op Zoom</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Boerengorseweg 1, Nieuw-Vossemeer</t>
+          <t>De Zeeland, verdieping 2, Markiezaatsweg 25, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F138" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lasergamen Etten-Leur</t>
+          <t>Playdôme Roosendaal</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Binnenhof 7, Etten-Leur</t>
+          <t>De Stok 3, Roosendaal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F139" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -4337,12 +4337,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Totalexperience</t>
+          <t>FunZone Indoor Speeltuin Roosendaal</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Kattenhoflaan 87, Brecht</t>
+          <t>De Stok 10B, Roosendaal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F140" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Laserbattle Etten-Leur</t>
+          <t>FunZone Trampolinepark Roosendaal</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Binnenhof 7, Etten-Leur</t>
+          <t>De Stok 12, Roosendaal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F141" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -4393,24 +4393,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Level One Game Hal</t>
+          <t>Escape Room 0164</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Markiezaatsweg 7, Bergen op Zoom</t>
+          <t>Kortemeestraat 18, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Lasergame</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F142" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Escape Room 0164</t>
+          <t>Escaperoom The Deep</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Kortemeestraat 18, Bergen op Zoom</t>
+          <t>Oesterdam 3, Tholen</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Escaperoom The Deep</t>
+          <t>Escape the Gate</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Oesterdam 3, Tholen</t>
+          <t>Lievevrouwestraat 60, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="F144" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
@@ -4477,12 +4477,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Escape Roosendaal</t>
+          <t>Escape-skillz</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>De Stok 10A, Roosendaal</t>
+          <t>Wouwbaan 143 A, Roosendaal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Escape the Gate</t>
+          <t>Laagwater - Events &amp; Escape rooms</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Lievevrouwestraat 60, Bergen op Zoom</t>
+          <t>Sint Jobsesteenweg 64, Brasschaat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F146" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -4533,12 +4533,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Escape-skillz</t>
+          <t>Escape Roosendaal</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Wouwbaan 143 A, Roosendaal</t>
+          <t>De Stok 10A, Roosendaal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4547,10 +4547,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F147" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Laagwater - Events &amp; Escape rooms</t>
+          <t>Try2Escape Rucphen</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sint Jobsesteenweg 64, Brasschaat</t>
+          <t>Baanvelden 13, Rucphen</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F149" t="n">
         <v>29</v>
@@ -4645,12 +4645,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mega Speelstad</t>
+          <t>Family Entertainment Center De Belhamel</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Voetbalstraat 16, Lille</t>
+          <t>Brugdam 17, Lage Zwaluwe</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F151" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152">
@@ -4673,12 +4673,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Hidrodoe</t>
+          <t>Mega Speelstad</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Haanheuvel 7, Herentals</t>
+          <t>Voetbalstraat 16, Lille</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F152" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Aquapark JUMP</t>
+          <t>Nature's Playground "The Little Biesbosch</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vossekotstraat, Sint-Niklaas</t>
+          <t>Brugdam 17, Lage Zwaluwe</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4718,7 +4718,7 @@
         <v>149</v>
       </c>
       <c r="F153" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154">
@@ -4729,24 +4729,24 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Basic-Fit Bergen op Zoom Markiezaatsweg 24/7</t>
+          <t>Aquapark JUMP</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Burgemeester van der Laarstraat 9, Bergen op Zoom</t>
+          <t>Vossekotstraat, Sint-Niklaas</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Basic Fit</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="F154" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155">
@@ -4757,12 +4757,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Basic-Fit Fitness Bergen op Zoom</t>
+          <t>Basic-Fit Bergen op Zoom Markiezaatsweg 24/7</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bastionweg 30, Bergen op Zoom</t>
+          <t>Burgemeester van der Laarstraat 9, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F155" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Basic-Fit Kalmthout Kapellensteenweg</t>
+          <t>Basic-Fit Fitness Bergen op Zoom</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Kapellensteenweg 117, Kalmthout</t>
+          <t>Bastionweg 30, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F156" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
@@ -4813,12 +4813,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>EasyFit Premium Essen</t>
+          <t>Basic-Fit Kalmthout Kapellensteenweg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Beliestraat 23, Essen</t>
+          <t>Kapellensteenweg 117, Kalmthout</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F157" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fitzone Fitnesscentrum</t>
+          <t>EasyFit Premium Essen</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Antwerpsestraat 240, Putte</t>
+          <t>Beliestraat 23, Essen</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F158" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -4869,12 +4869,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fit For Free Bergen op Zoom</t>
+          <t>Fitzone Fitnesscentrum</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>De Boulevard Noord 2, Bergen op Zoom</t>
+          <t>Antwerpsestraat 240, Putte</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,38 +4883,38 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F159" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Oldenzaalsestraat 135, Losser</t>
+          <t>Groenendries, Huijbergen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Albert Heijn</t>
+          <t>Fit For Free Bergen op Zoom</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Johanna van Burenlaan 222, Oldenzaal</t>
+          <t>De Boulevard Noord 2, Bergen op Zoom</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Supermarkt</t>
+          <t>Basic Fit</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F160" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -4925,12 +4925,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>Albert Heijn</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
+          <t>Johanna van Burenlaan 222, Oldenzaal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F161" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>De Brink 46, Losser</t>
+          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Dirk van den Broek</t>
+          <t>Jumbo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Rijnstraat 84, Enschede</t>
+          <t>De Brink 46, Losser</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F163" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AH In den Vijfhoek</t>
+          <t>Dirk van den Broek</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>In Den Vijfhoek 1, Oldenzaal</t>
+          <t>Rijnstraat 84, Enschede</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F164" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -5037,12 +5037,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PLUS van Haaren</t>
+          <t>AH In den Vijfhoek</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Hoofdstraat 163, Overdinkel</t>
+          <t>In Den Vijfhoek 1, Oldenzaal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F165" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Supermarkten In Oldenzaal</t>
+          <t>PLUS van Haaren</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
+          <t>Hoofdstraat 163, Overdinkel</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F166" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167">
@@ -5093,12 +5093,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AH Rijnstraat</t>
+          <t>Supermarkten In Oldenzaal</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Rijnstraat 20, Enschede</t>
+          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F167" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lidl</t>
+          <t>AH Rijnstraat</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Molenstraat 16, Oldenzaal</t>
+          <t>Rijnstraat 20, Enschede</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F168" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Deppenbroek</t>
+          <t>Lidl</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Rijnstraat 20, Enschede</t>
+          <t>Molenstraat 16, Oldenzaal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F169" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -5177,12 +5177,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AH Burg Wallerstraat</t>
+          <t>Deppenbroek</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
+          <t>Rijnstraat 20, Enschede</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="n">
+        <v>31</v>
+      </c>
+      <c r="F170" t="n">
         <v>14</v>
-      </c>
-      <c r="F170" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -5205,12 +5205,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>AH Burg Wallerstraat</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Langenkamp 5, Losser</t>
+          <t>Burgemeester Wallerstraat 133, Oldenzaal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F171" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -5233,12 +5233,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AH Langenkamp</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Langenkamp 8, Losser</t>
+          <t>Langenkamp 5, Losser</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SPAR Schreur</t>
+          <t>AH Langenkamp</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Plechelmusstraat 4, De Lutte</t>
+          <t>Langenkamp 8, Losser</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -5289,12 +5289,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Jumbo</t>
+          <t>SPAR Schreur</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Brouwerijplein 55, Enschede</t>
+          <t>Plechelmusstraat 4, De Lutte</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F174" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ALDI Overdinkel</t>
+          <t>Jumbo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Hoofdstraat 189-195, Overdinkel</t>
+          <t>Brouwerijplein 55, Enschede</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F175" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -5345,12 +5345,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ALDI</t>
+          <t>ALDI Overdinkel</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Henegouwenlaan 56, Oldenzaal</t>
+          <t>Hoofdstraat 189-195, Overdinkel</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F176" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
@@ -5373,12 +5373,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Supermarkten In Oldenzaal</t>
+          <t>ALDI</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
+          <t>Henegouwenlaan 56, Oldenzaal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F177" t="n">
         <v>13</v>
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Alsheikh Markt</t>
+          <t>Supermarkten In Oldenzaal</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Burgemeester Wallerstraat 161, Oldenzaal</t>
+          <t>Deken Scholtenstraat 38-44, Oldenzaal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F178" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
@@ -5429,12 +5429,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Selam Market Roombeek</t>
+          <t>Alsheikh Markt</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Roomweg 73, Enschede</t>
+          <t>Burgemeester Wallerstraat 161, Oldenzaal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F179" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -5457,24 +5457,24 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AC De Kikker</t>
+          <t>Selam Market Roombeek</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Losser</t>
+          <t>Roomweg 73, Enschede</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Zwembad</t>
+          <t>Supermarkt</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F180" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
@@ -5485,12 +5485,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Swimming Brilmansdennen</t>
+          <t>AC De Kikker</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Bookholtlaan 11, Losser</t>
+          <t>Losser</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F181" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nijhuishandel</t>
+          <t>Swimming Brilmansdennen</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Merelstraat 22A, De Lutte</t>
+          <t>Bookholtlaan 11, Losser</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F182" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Sports Vondersweijde</t>
+          <t>Nijhuishandel</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Ada Kokstraat 20, Oldenzaal</t>
+          <t>Merelstraat 22A, De Lutte</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F183" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Zwembadcenter</t>
+          <t>Sports Vondersweijde</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Merelstraat 22A, De Lutte</t>
+          <t>Ada Kokstraat 20, Oldenzaal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F184" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185">
@@ -5597,12 +5597,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ZIN in zwemmen</t>
+          <t>Zwembadcenter</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Eektestraat 36, Oldenzaal</t>
+          <t>Merelstraat 22A, De Lutte</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F185" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Trifora Sports &amp; Health Club Enschede</t>
+          <t>ZIN in zwemmen</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kotkampweg 65, Enschede</t>
+          <t>Eektestraat 36, Oldenzaal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F186" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -5653,24 +5653,24 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Klimbos Rutbeek</t>
+          <t>Trifora Sports &amp; Health Club Enschede</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Blikkersmaatweg 15, Enschede</t>
+          <t>Kotkampweg 65, Enschede</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Klimbos</t>
+          <t>Zwembad</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F187" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AvaTarZ climbing forest</t>
+          <t>Klimbos Rutbeek</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Hengelosestraat 230, Deurningen</t>
+          <t>Blikkersmaatweg 15, Enschede</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F188" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Klimbos Winterswijk</t>
+          <t>AvaTarZ climbing forest</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Bataafseweg, Winterswijk</t>
+          <t>Hengelosestraat 230, Deurningen</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="F189" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Klimbos, Escaperoom Rutbeek, Buitenhoff Outdoor, Klimbos Enschede</t>
+          <t>Klimbos Winterswijk</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Blikkersmaatweg 15, Enschede</t>
+          <t>Bataafseweg, Winterswijk</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="F190" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191">
@@ -5765,24 +5765,24 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Conceptlicious / Design, Virtual Reality &amp; Games</t>
+          <t>Klimbos, Escaperoom Rutbeek, Buitenhoff Outdoor, Klimbos Enschede</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ariënsplein, Enschede</t>
+          <t>Blikkersmaatweg 15, Enschede</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>VR Game</t>
+          <t>Klimbos</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F191" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192">
@@ -5793,12 +5793,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Virtual Reality Game Planet</t>
+          <t>Conceptlicious / Design, Virtual Reality &amp; Games</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Leijdsweg 65, Enschede</t>
+          <t>Ariënsplein, Enschede</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F192" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
@@ -5849,12 +5849,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Serious XR</t>
+          <t>Virtual Reality Game Planet</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Het Rozendaal 11, Enschede</t>
+          <t>Leijdsweg 65, Enschede</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F194" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>belgianrails-project</t>
+          <t>Go Planet Parc</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Geulstraat, Enschede</t>
+          <t>Colosseum 72, Enschede</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F197" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198">
@@ -5961,24 +5961,24 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Lasergame Warriors</t>
+          <t>Serious XR</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Blikkersmaatweg 15, Enschede</t>
+          <t>Het Rozendaal 11, Enschede</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Lasergame</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F198" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -5989,24 +5989,24 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Laser Game Hengelo - the Tapperij</t>
+          <t>belgianrails-project</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Pastoriestraat 33, Hengelo</t>
+          <t>Geulstraat, Enschede</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Lasergame</t>
+          <t>VR Game</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F199" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>StarWorld paintball and laser tag</t>
+          <t>Laser Game Hengelo - the Tapperij</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>J J Van Deinselaan 28, Enschede</t>
+          <t>Pastoriestraat 33, Hengelo</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F200" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Gotcha Outdoor Lasergames Oldenzaal</t>
+          <t>Lasergame Warriors</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Oude Almeloseweg 11, Oldenzaal</t>
+          <t>Blikkersmaatweg 15, Enschede</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F201" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202">
@@ -6073,12 +6073,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ZERO55 Enschede</t>
+          <t>StarWorld paintball and laser tag</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Colosseum 84, Enschede</t>
+          <t>J J Van Deinselaan 28, Enschede</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F202" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203">
@@ -6101,12 +6101,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Outdoor laserTag Nordhorn Bonanza verleih</t>
+          <t>Gotcha Outdoor Lasergames Oldenzaal</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Grenzweg 5, Nordhorn</t>
+          <t>Oude Almeloseweg 11, Oldenzaal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F203" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -6129,12 +6129,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Outdoor Labyrinth</t>
+          <t>Outdoor laserTag Nordhorn Bonanza verleih</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Welenmosweg 1, Enschede</t>
+          <t>Grenzweg 5, Nordhorn</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F204" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205">
@@ -6157,12 +6157,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Lasergame Kinderfeestje</t>
+          <t>Outdoor Labyrinth</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Twekkelerweg 337, Hengelo</t>
+          <t>Welenmosweg 1, Enschede</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F205" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206">
@@ -6185,24 +6185,24 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Escape De Kist Enschede</t>
+          <t>ZERO55 Enschede</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Voortsweg 69, Enschede</t>
+          <t>Colosseum 84, Enschede</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Escaperoom</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F206" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207">
@@ -6213,24 +6213,24 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Historical Museum "The Palthehuis"</t>
+          <t>Lasergame Kinderfeestje</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Marktstraat 13, Oldenzaal</t>
+          <t>Twekkelerweg 337, Hengelo</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Escaperoom</t>
+          <t>Lasergame</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F207" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Rouwhorst Dance &amp; Partycentrum</t>
+          <t>Room Escape Enschede</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Ootmarsumsestraat 9, Oldenzaal</t>
+          <t>Hoge Bothofstraat 49, Enschede</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F208" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AvaTarZ climbing forest</t>
+          <t>Let’s Escape Enschede</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Hengelosestraat 230, Deurningen</t>
+          <t>Brandweerstraat 30, Enschede</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F209" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210">
@@ -6297,24 +6297,24 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Attractiepark de Waarbeek</t>
+          <t>Escape De Kist Enschede</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Twekkelerweg 327, Hengelo</t>
+          <t>Voortsweg 69, Enschede</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Pretpark</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F210" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
@@ -6325,24 +6325,24 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Waterspeeltuin Hulsbeek</t>
+          <t>Het Lab</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Oldenzaal</t>
+          <t>Hoge Bothofstraat 49, Enschede</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Pretpark</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F211" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -6353,24 +6353,24 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Achtbaan Rupsje MAE</t>
+          <t>Escape with friends</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Twekkelerweg 327, Hengelo</t>
+          <t>Langestraat 62, Enschede</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Pretpark</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F212" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
@@ -6381,24 +6381,24 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ballorig Enschede</t>
+          <t>Escape Mission</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>J J Van Deinselaan 30, Enschede</t>
+          <t>J J Van Deinselaan 30A, Enschede</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Pretpark</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E213" t="n">
         <v>42</v>
       </c>
       <c r="F213" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
@@ -6409,24 +6409,24 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Speeltuin Watertorenpark</t>
+          <t>Escape Room Weerselo</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Hengelo</t>
+          <t>Gunnerstraat 33, Weerselo</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Pretpark</t>
+          <t>Escaperoom</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F214" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215">
@@ -6437,24 +6437,24 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Basic-Fit Oldenzaal Nagelstraat 24/7</t>
+          <t>Attractiepark de Waarbeek</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Nagelstraat 40, Oldenzaal</t>
+          <t>Twekkelerweg 327, Hengelo</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Basic Fit</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F215" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216">
@@ -6465,21 +6465,21 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sportcentrum Spectral Fit</t>
+          <t>Waterspeeltuin Hulsbeek</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Spinnersweg 168, Overdinkel</t>
+          <t>Oldenzaal</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Basic Fit</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F216" t="n">
         <v>12</v>
@@ -6493,24 +6493,24 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Gym-Fit Sportschool Losser</t>
+          <t>Achtbaan Rupsje MAE</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>De Zoeker Esch 2A, Losser</t>
+          <t>Twekkelerweg 327, Hengelo</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Basic Fit</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F217" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218">
@@ -6521,24 +6521,24 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Approach Fitness</t>
+          <t>Ballorig Enschede</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Ada Kokstraat 20, Oldenzaal</t>
+          <t>J J Van Deinselaan 30, Enschede</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Basic Fit</t>
+          <t>Pretpark</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F218" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219">
@@ -6549,23 +6549,163 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>Speeltuin Watertorenpark</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Hengelo</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Pretpark</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>50</v>
+      </c>
+      <c r="F219" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Basic-Fit Oldenzaal Nagelstraat 24/7</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Nagelstraat 40, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>21</v>
+      </c>
+      <c r="F220" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Sportcentrum Spectral Fit</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Spinnersweg 168, Overdinkel</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>27</v>
+      </c>
+      <c r="F221" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Gym-Fit Sportschool Losser</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>De Zoeker Esch 2A, Losser</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>17</v>
+      </c>
+      <c r="F222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Approach Fitness</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Ada Kokstraat 20, Oldenzaal</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Basic Fit</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>22</v>
+      </c>
+      <c r="F223" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>Oldenzaalsestraat 135, Losser</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>Fitness Gym Makoto Oldenzaal</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Bentheimergraven 15, Oldenzaal</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>Basic Fit</t>
         </is>
       </c>
-      <c r="E219" t="n">
+      <c r="E224" t="n">
         <v>23</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F224" t="n">
         <v>12</v>
       </c>
     </row>
